--- a/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_2_capture_form_202108.xlsx
+++ b/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_2_capture_form_202108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Togo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CC868-C110-4142-93C5-BA9D952D19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4071DDF-DA4C-40EB-9343-7E7B56EBB3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>form_title</t>
   </si>
@@ -311,10 +311,55 @@
     <t>Date</t>
   </si>
   <si>
-    <t>(Août 2021) 2. Fiche de collecte des Simulies par équipe v5</t>
-  </si>
-  <si>
-    <t>cg_oncho_bsc_2_capture_202108_v5</t>
+    <t>Oti</t>
+  </si>
+  <si>
+    <t>Kpaza-Koui</t>
+  </si>
+  <si>
+    <t>Assoukawkaw</t>
+  </si>
+  <si>
+    <t>bassin_list</t>
+  </si>
+  <si>
+    <t>s_river_basin_name</t>
+  </si>
+  <si>
+    <t>Nom du bassin fluvial</t>
+  </si>
+  <si>
+    <t>s_river_name</t>
+  </si>
+  <si>
+    <t>Nom du fleuve ou de la rivière</t>
+  </si>
+  <si>
+    <t>cg_oncho_bsc_2_capture_202108_v6</t>
+  </si>
+  <si>
+    <t>(Août 2021) 2. Fiche de collecte des Simulies par équipe V6</t>
+  </si>
+  <si>
+    <t>select_one bassin_list</t>
+  </si>
+  <si>
+    <t>site_list = ${q_SiteName}</t>
+  </si>
+  <si>
+    <t>Koui</t>
+  </si>
+  <si>
+    <t>Kpaza</t>
+  </si>
+  <si>
+    <t>riviere_list</t>
+  </si>
+  <si>
+    <t>select_one riviere_list</t>
+  </si>
+  <si>
+    <t>allow_choice_duplicates</t>
   </si>
 </sst>
 </file>
@@ -768,13 +813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7:G7"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -938,68 +983,68 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="6" t="s">
@@ -1010,18 +1055,16 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="8"/>
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
@@ -1032,20 +1075,24 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="6" t="s">
@@ -1056,16 +1103,18 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
       <c r="H11" s="10"/>
@@ -1078,63 +1127,75 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="8"/>
@@ -1147,19 +1208,51 @@
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B14"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1527,6 +1620,160 @@
         <v>71</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B49">
     <sortCondition ref="B14:B49"/>
@@ -1538,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1551,7 +1798,7 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1564,19 +1811,25 @@
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <v>20210625</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
